--- a/medicine/Enfance/Giampiero_Rigosi/Giampiero_Rigosi.xlsx
+++ b/medicine/Enfance/Giampiero_Rigosi/Giampiero_Rigosi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giampiero Rigosi (né le 11 mars 1962 à Bologne dans la région de l'Émilie-Romagne) est un écrivain et un scénariste italien, auteur de roman policier, principalement connu en France pour son roman policier humoristique Bus de nuit.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études supérieures et décroche un diplôme en philosophie.
 Il exerce ensuite de nombreux métiers (conducteur de bus, chauffeur routier, ambulancier, pompiste ...) avant de s’orienter vers l’écriture. Il publie en 1995 un premier roman policier intitulé Dove finisce il sentiero, traduit sous le titre Où finit le sentier ? en 2000. Il écrit deux nouveaux romans, puis signe un guide touristique sur la région de Bologne et un ouvrage à l’attention de la jeunesse, Transilvania, pour le compte des éditions Walt Disney.
@@ -547,24 +561,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Dove finisce il sentiero (1995) Publié en français sous le titre Où finit le sentier ?, traduction de Michel Beynet, Paris, Tram’éditions, 2000.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dove finisce il sentiero (1995) Publié en français sous le titre Où finit le sentier ?, traduction de Michel Beynet, Paris, Tram’éditions, 2000.
 Come le nuvole sopra Veracruz (1998)
 Lola a caccia (1999)
 Notturno bus (2000), en collaboration avec Guido Leotta Publié en français sous le titre Bus de nuit, traduction d’Arlette Lauterbach, Paris, Série noire no 2708, 2004.
 Piano Delta (2001)
-L'ora dell'incontro (2007)
-Ouvrage de littérature d'enfance et de jeunesse
-Transilvania (1999)
-Recueils de nouvelles
-Chiappe da apache (1996)
-Ma il cielo è proprio bello però (1999)
-Nouvelles isolées
-No smoking (2001)
-Appuntamento (2004)
-Alfama (2006)
-Autre publication
-Itinerario di Bologna - Arte e filosofia sotto i portici (1999)</t>
+L'ora dell'incontro (2007)</t>
         </is>
       </c>
     </row>
@@ -589,20 +597,213 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Transilvania (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chiappe da apache (1996)
+Ma il cielo è proprio bello però (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles isolées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No smoking (2001)
+Appuntamento (2004)
+Alfama (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Itinerario di Bologna - Arte e filosofia sotto i portici (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme scénariste
-Au cinéma
-2002 : L'Âme en jeu (Prendimi l'anima), film italien réalisé par Roberto Faenza d’après le roman Journal d'une symétrie secrète d’Aldo Carotenuto.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2002 : L'Âme en jeu (Prendimi l'anima), film italien réalisé par Roberto Faenza d’après le roman Journal d'une symétrie secrète d’Aldo Carotenuto.
 2007 : Bus de nuit (Notturno bus), film italien réalisé par Davide Marengo, avec Giovanna Mezzogiorno et Valerio Mastandrea.
 2009 : La valle delle ombre, film suisse réalisé par Mihály Györik.
 2012 : Paura 3D, film italien réalisé par Antonio Manetti et Marco Manetti.
-2012 : L'Isola dell'angelo caputo, film italien réalisé par Carlo Lucarelli.
-À la télévision
-2000 : Giovanna, commissaire (Distretto di Polizia) (Série TV)
+2012 : L'Isola dell'angelo caputo, film italien réalisé par Carlo Lucarelli.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giampiero_Rigosi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2000 : Giovanna, commissaire (Distretto di Polizia) (Série TV)
 2000 – 2009 : L’Ispettore Coliandro (Série TV)
 2006 – 2010 : Crimini (Série TV)
 2006 : Milonga Station (émission)</t>
